--- a/atomica/library/hypertension_framework.xlsx
+++ b/atomica/library/hypertension_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3770DB6-9E62-46C7-8F6C-3AA2B62E8681}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571B7CD-E242-48FB-9179-65342C872F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="Characteristics" sheetId="5" r:id="rId5"/>
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
+    <sheet name="Plots" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -551,8 +553,45 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>None</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DFFDD34D-F360-49F0-8EAC-F9F63BC6CD25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This column is for the 'display name' of a compartment within a
+population cascade, a state that an entity can exist in that is
+distinct from all other states.
+Examples may include 'Susceptible', 'Infected Stage 1', 'Recovered',
+etc.
+If entities in the network involve two 'orthogonal' descriptors,
+compartments should combine the status of each state in the title,
+e.g. 'High Income Earner + Year 12 Education', to make sure that each
+entity in a cascade is only ever in one state at a time.
+It is possible to bundle independent states as analytical features of
+interest elsewhere in the framework file.
+Note: A display name is a representative label that users interface
+with (e.g. in databooks and plots).
+It should be in title or sentence case.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -815,13 +854,34 @@
     <t>Treatment failure rate</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>Constituents</t>
   </si>
   <si>
     <t>Prevalent</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Undiagnosed compartment</t>
+  </si>
+  <si>
+    <t>Screened compartment</t>
+  </si>
+  <si>
+    <t>Diagnosed compartment</t>
+  </si>
+  <si>
+    <t>Treated compartment</t>
+  </si>
+  <si>
+    <t>Controlled compartment</t>
+  </si>
+  <si>
+    <t>Treatment only</t>
+  </si>
+  <si>
+    <t>All stages</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1470,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,11 +2203,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2157,15 +2215,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>48</v>
@@ -2203,7 +2261,111 @@
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1138990-DC73-4184-AF4A-CCEB4A7F8BAA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/atomica/library/hypertension_framework.xlsx
+++ b/atomica/library/hypertension_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571B7CD-E242-48FB-9179-65342C872F6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A9C19E-99AB-7D4A-99E5-AA3AB4898405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28560" windowHeight="14180" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -809,9 +814,6 @@
     <t>Screening rate</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>num_screen/max(undx,num_screen)</t>
   </si>
   <si>
@@ -882,6 +884,9 @@
   </si>
   <si>
     <t>All stages</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -973,9 +978,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,9 +1018,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,26 +1053,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,26 +1088,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1302,13 +1273,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1324,22 +1295,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1371,7 +1342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1401,13 +1372,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1423,39 +1394,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
@@ -1473,17 +1444,17 @@
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1492,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1510,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1528,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1575,7 +1546,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1612,9 +1583,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1636,7 +1607,7 @@
         <v>con</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1645,7 +1616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1654,7 +1625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1663,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1675,7 +1646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>con</v>
@@ -1700,14 +1671,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -1741,7 +1712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1758,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1775,7 +1746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1792,7 +1763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -1819,24 +1790,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,7 +1836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -1888,7 +1859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1896,29 +1867,27 @@
         <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>70</v>
@@ -1936,37 +1905,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>70</v>
@@ -1984,65 +1951,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D9" s="4">
         <v>0.2</v>
@@ -2059,15 +2022,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4">
         <v>0.16</v>
@@ -2075,18 +2038,16 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2096,7 +2057,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2106,7 +2067,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2116,7 +2077,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2126,7 +2087,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2136,7 +2097,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2146,7 +2107,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2156,7 +2117,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2166,7 +2127,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2176,7 +2137,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2187,12 +2148,15 @@
       <c r="H20" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C11:C20" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{6749B916-A797-8F47-822B-A513675ED39A}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2205,31 +2169,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0"/>
+    <sheetView zoomScale="179" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -2253,7 +2217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2261,15 +2225,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2277,7 +2241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2293,7 +2257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
@@ -2310,55 +2274,55 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
